--- a/biology/Botanique/Fritz_Nobis/Fritz_Nobis.xlsx
+++ b/biology/Botanique/Fritz_Nobis/Fritz_Nobis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Fritz Nobis', est un rosier arbuste moderne, créé en 1940 par le rosiériste allemand Kordes. Le nom du rosier est dédié à un ami de l'obtenteur. Il est toujours très présent dans les jardins et pépinières.
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosier très buissonnant, touffu, il forme un arbuste au port étalé, ample, équilibré. De fins boutons pointus, rouges, donnent naissance à des corolles rose tendre à revers plus intense, nimbées d'un voile corail. Les pétales qui dessinent une couronne légèrement froncée autour des étamines jaune d'or. Il dispense des bouquets formés de dix à vingt fleurs de 6 à 8 cm de diamètre, composées de dix à vingt pétales. Il ne fleurit qu'une fois par an mais la floraison est assez longue et très fournie et lui permet une place de choix[1], [2].
-Son parfum est agréable et légèrement épicé. Ses rameaux longs, fins, arqués, plient sous le poids de la floraison. Son feuillage est gris-vert à vert foncé, avec des feuilles de 5 ou 7 folioles ovales, dentées et coriaces[2].
-Ce rosier a une excellente résistance aux maladies et au froid[2].
-Sa taille varie entre 1,60 m et 2 m, mais peut monter jusque 3 m[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosier très buissonnant, touffu, il forme un arbuste au port étalé, ample, équilibré. De fins boutons pointus, rouges, donnent naissance à des corolles rose tendre à revers plus intense, nimbées d'un voile corail. Les pétales qui dessinent une couronne légèrement froncée autour des étamines jaune d'or. Il dispense des bouquets formés de dix à vingt fleurs de 6 à 8 cm de diamètre, composées de dix à vingt pétales. Il ne fleurit qu'une fois par an mais la floraison est assez longue et très fournie et lui permet une place de choix, .
+Son parfum est agréable et légèrement épicé. Ses rameaux longs, fins, arqués, plient sous le poids de la floraison. Son feuillage est gris-vert à vert foncé, avec des feuilles de 5 ou 7 folioles ovales, dentées et coriaces.
+Ce rosier a une excellente résistance aux maladies et au froid.
+Sa taille varie entre 1,60 m et 2 m, mais peut monter jusque 3 m,.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Ascendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Johanna Hill' × 'Magnifica'[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Johanna Hill' × 'Magnifica'.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La RHS (Royal Horticultural Society) lui décerne un AGM Award of Garden Merit en 1993[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La RHS (Royal Horticultural Society) lui décerne un AGM Award of Garden Merit en 1993.</t>
         </is>
       </c>
     </row>
